--- a/data/trans_camb/P14_3-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P14_3-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>7,28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>4,41</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 9,62</t>
+          <t>-3,0; 25,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 7,78</t>
+          <t>-4,29; 10,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 6,83</t>
+          <t>-2,16; 12,29</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>201,75%</t>
+          <t>230,66%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>219,49%</t>
+          <t>85,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>211,65%</t>
+          <t>170,28%</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-61,48; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,11</t>
+          <t>5,54</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,51</t>
+          <t>4,69</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 16,01</t>
+          <t>-3,76; 19,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 8,34</t>
+          <t>-3,25; 13,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 10,35</t>
+          <t>-1,21; 12,71</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>152,42%</t>
+          <t>144,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>106,55%</t>
+          <t>111,56%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>137,15%</t>
+          <t>131,23%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-46,84; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-55,8; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-33,76; 674,09</t>
+          <t>-36,47; 893,9</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,47</t>
+          <t>8,58</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,39</t>
+          <t>8,96</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,48</t>
+          <t>8,81</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,65; 13,78</t>
+          <t>-0,0; 18,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,93; 14,21</t>
+          <t>2,19; 16,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,71; 11,75</t>
+          <t>2,81; 14,65</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>184,47%</t>
+          <t>271,18%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>277,63%</t>
+          <t>243,41%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>230,08%</t>
+          <t>252,72%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 809,56</t>
+          <t>-44,68; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>44,95; 1145,08</t>
+          <t>16,09; 1411,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>69,45; 602,84</t>
+          <t>30,02; 953,59</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,61</t>
+          <t>4,83</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,62</t>
+          <t>3,81</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,63</t>
+          <t>4,28</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 11,2</t>
+          <t>-3,07; 13,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 10,4</t>
+          <t>-3,08; 10,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,46; 8,83</t>
+          <t>-0,52; 10,34</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>72,47%</t>
+          <t>94,63%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>102,5%</t>
+          <t>75,98%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>86,74%</t>
+          <t>84,73%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,61; 398,72</t>
+          <t>-48,72; 767,02</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-13,37; 402,96</t>
+          <t>-48,38; 525,27</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,24; 226,29</t>
+          <t>-13,83; 376,5</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>4,31</t>
+          <t>4,02</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5,15</t>
+          <t>8,2</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,71</t>
+          <t>5,78</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 11,68</t>
+          <t>-6,12; 12,74</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 12,68</t>
+          <t>-1,09; 20,11</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,15; 9,39</t>
+          <t>-0,92; 12,71</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>75,78%</t>
+          <t>58,42%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>117,3%</t>
+          <t>212,84%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>92,99%</t>
+          <t>103,37%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-32,87; 374,89</t>
+          <t>-61,43; 358,38</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-32,84; 570,69</t>
+          <t>-57,08; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 282,77</t>
+          <t>-17,39; 474,97</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>2,28</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,02</t>
+          <t>0,0; 14,93</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,85; 7,93</t>
+          <t>0,0; 9,3</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,53; 4,88</t>
+          <t>0,0; 8,1</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>5,57</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>4,57</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>5,33</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,66; 7,17</t>
+          <t>1,75; 9,99</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>2,42; 6,8</t>
+          <t>2,05; 8,43</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,75; 6,43</t>
+          <t>2,76; 7,81</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>119,46%</t>
+          <t>140,62%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>165,5%</t>
+          <t>157,36%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>140,4%</t>
+          <t>149,22%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>33,38; 249,1</t>
+          <t>25,24; 381,07</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>63,93; 362,41</t>
+          <t>37,93; 369,58</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>70,5; 245,52</t>
+          <t>65,35; 306,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P14_3-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P14_3-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,193 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>7,28</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,83</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,41</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>5.607973316226065</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.160006702849448</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.809549357457436</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,0; 25,22</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,29; 10,42</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,16; 12,29</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-2.891646615649389</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.320592731519375</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.57144987109271</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>230,66%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>85,83%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>170,28%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>20.4238663859408</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>10.9785745232274</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.77389744847985</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>2.032463921243884</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>1.237113825457775</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>1.750966907125799</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>5,54</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,71</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,69</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr"/>
+      <c r="D8" s="6" t="inlineStr"/>
+      <c r="E8" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,76; 19,33</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,25; 13,92</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,21; 12,71</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr"/>
+      <c r="D9" s="6" t="inlineStr"/>
+      <c r="E9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>144,94%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>111,56%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>131,23%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>6.115094704078528</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>3.474953605226776</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>4.838150113447531</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-36,47; 893,9</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.566630827190824</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-3.113871367262698</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.6505499253893494</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>8,58</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>8,96</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>8,81</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>21.21220398396867</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>13.29785405440894</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>13.06748843515577</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,0; 18,42</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>2,19; 16,55</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>2,81; 14,65</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>1.758476579805531</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>1.126420197991844</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>1.469588435958196</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>271,18%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>243,41%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>252,72%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr"/>
+      <c r="D14" s="6" t="inlineStr"/>
+      <c r="E14" s="6" t="n">
+        <v>-0.327314961373132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-44,68; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>16,09; 1411,21</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>30,02; 953,59</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr"/>
+      <c r="D15" s="6" t="inlineStr"/>
+      <c r="E15" s="6" t="n">
+        <v>10.31341605740375</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +757,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>4,83</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>3,81</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>4,28</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>8.360342873116288</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>8.933830617556978</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>8.699101406479951</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-3,07; 13,39</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-3,08; 10,67</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-0,52; 10,34</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>0.3939764647578768</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>2.608447767533967</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>2.804818005104252</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>94,63%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>75,98%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>84,73%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>17.99490920973257</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>17.17377128692534</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>14.36227184205065</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-48,72; 767,02</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-48,38; 525,27</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-13,83; 376,5</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>2.896581105708787</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>2.510994972090402</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>2.638517879122222</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>4,02</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>8,2</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>5,78</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.4229273618798845</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>0.155431876453673</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0.3497370140760891</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-6,12; 12,74</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-1,09; 20,11</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-0,92; 12,71</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr"/>
+      <c r="D21" s="6" t="n">
+        <v>14.24320821704622</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>9.857124962786092</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>58,42%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>212,84%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>103,37%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>4.933776042996338</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>4.019356782740746</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>4.448799167669266</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-61,43; 358,38</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-57,08; —</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-17,39; 474,97</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-3.236295989596578</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-2.48787481560968</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.2100668185455274</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>2,52</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>2,07</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>2,28</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>13.68615628608778</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>11.05119289150486</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>10.3532962931785</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 14,93</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 9,3</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 8,1</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.9556004671743672</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.849225480679408</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.9025257128992012</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.4872379151093583</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.4722394299782592</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.1114387905324994</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>7.562419550730777</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>5.081221393549563</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>3.986264176137671</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +967,307 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>5,57</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>5,09</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>5,33</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>3.137156326122756</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>8.64877844783736</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>5.455106254036783</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>1,75; 9,99</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>2,05; 8,43</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>2,76; 7,81</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-6.682387613594272</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-0.1495909065477588</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-0.9827957851847471</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>140,62%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>157,36%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>149,22%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>11.50435346483727</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>21.30465779397086</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>12.525559982691</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>25,24; 381,07</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>37,93; 369,58</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>65,35; 306,73</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.453104216347474</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>2.382540978530271</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.9869558679156758</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.6556826242136886</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.5684995169870481</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.19137579082248</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>3.212990469442306</v>
+      </c>
+      <c r="D33" s="6" t="inlineStr"/>
+      <c r="E33" s="6" t="n">
+        <v>4.525695416865341</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>2.45290537517819</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>1.861845808249292</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>2.121294672307077</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>14.55463711446453</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>8.561033821421338</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>7.540466857680149</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D37" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="E37" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="inlineStr"/>
+      <c r="D38" s="6" t="inlineStr"/>
+      <c r="E38" s="6" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="inlineStr"/>
+      <c r="D39" s="6" t="inlineStr"/>
+      <c r="E39" s="6" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>5.345793846178705</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>5.113228828645447</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>5.227352727122566</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>1.503245415079157</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>2.142489338548545</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>2.775343443131496</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>9.788192543320697</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>8.42613090542717</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>7.69055276616076</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>1.404331940052966</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>1.662215363689599</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>1.529509682537241</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>0.2700582941012605</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>0.4207687778838006</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>0.6344977681907341</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>3.825737335407577</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>3.812469302614403</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>3.053251204742287</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1224,14 +1275,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
